--- a/summary/sppb-psat-finish-2022-1.xlsx
+++ b/summary/sppb-psat-finish-2022-1.xlsx
@@ -64,13 +64,13 @@
     <t>NOMOR COBA</t>
   </si>
   <si>
-    <t>Sat Jan 08 2022 00:00:00 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sat Jan 08 2022 00:00:00 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
-    <t>Sun Jan 02 2022 09:20:05 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sun Jan 02 2022 09:20:05 GMT+0700 (Western Indonesia Time)</t>
   </si>
   <si>
-    <t>Sun Jan 02 2022 09:50:34 GMT+0800 (Taipei Standard Time)</t>
+    <t>Sun Jan 02 2022 09:50:34 GMT+0700 (Western Indonesia Time)</t>
   </si>
 </sst>
 </file>
